--- a/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/4 Muertos y damnificados por tipo de desastre Global 1900-2019.xlsx
+++ b/GLOBAL/Impactos y Proyecciones Cambio Climático/Vida Humana/4 Muertos y damnificados por tipo de desastre Global 1900-2019.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos y Proyecciones Cambio Climático\Vida Humana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABD6DB7-7CBE-4802-9BB6-4673FC5FBAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91CA0B9-EDEF-4F30-91A5-3A688C831005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MUNDO" sheetId="3" r:id="rId1"/>
+    <sheet name="Muertes y Damnificados" sheetId="3" r:id="rId1"/>
     <sheet name="Numero de muertes por tipo de d" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -2375,12 +2375,6 @@
     <t>Tormenta</t>
   </si>
   <si>
-    <t>Variación Todos</t>
-  </si>
-  <si>
-    <t>Variación Porcentual Todos (%)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -2388,6 +2382,12 @@
   </si>
   <si>
     <t>Variación Porcentual Damnificados Todos (%)</t>
+  </si>
+  <si>
+    <t>Variación Muertes Todos</t>
+  </si>
+  <si>
+    <t>Variación Porcentual Muertes Todos (%)</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2396,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2879,7 +2879,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2928,10 +2928,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2954,10 +2954,10 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Desastre Español"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Año"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Muertes Globales por Desastres Naturales" dataCellStyle="Millares [0]"/>
-    <tableColumn id="6" xr3:uid="{59949CC3-582D-458A-B1D8-5B8025F5C37D}" name="Variación Todos" dataCellStyle="Millares [0]">
+    <tableColumn id="6" xr3:uid="{59949CC3-582D-458A-B1D8-5B8025F5C37D}" name="Variación Muertes Todos" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IF(A1=Muertes_Damnificados_por_desastre_MUNDO[[#This Row],[Desastre]],Muertes_Damnificados_por_desastre_MUNDO[[#This Row],[Muertes Globales por Desastres Naturales]]-D1,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E372D8BE-71FE-4006-B01C-39DCC99A6A37}" name="Variación Porcentual Todos (%)" dataDxfId="1" dataCellStyle="Millares [0]">
+    <tableColumn id="7" xr3:uid="{E372D8BE-71FE-4006-B01C-39DCC99A6A37}" name="Variación Porcentual Muertes Todos (%)" dataDxfId="1" dataCellStyle="Millares [0]">
       <calculatedColumnFormula>IFERROR(IF(A1=Muertes_Damnificados_por_desastre_MUNDO[[#This Row],[Desastre]],((Muertes_Damnificados_por_desastre_MUNDO[[#This Row],[Muertes Globales por Desastres Naturales]]-D1)/D1)*100,""),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{952CC229-142C-4345-8FC1-CB2C45E00EA5}" name="Personas Damnificadas por Desastres Naturales" dataCellStyle="Millares [0]"/>
@@ -3271,8 +3271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,6 +3280,7 @@
     <col min="4" max="6" width="43" customWidth="1"/>
     <col min="7" max="7" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3296,19 +3297,19 @@
         <v>769</v>
       </c>
       <c r="E1" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="F1" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G1" t="s">
         <v>781</v>
       </c>
       <c r="H1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3325,19 +3326,19 @@
         <v>1267330</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3366,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -3395,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3424,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3453,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3473,7 +3474,7 @@
         <v>22758</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -3482,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3511,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3540,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3569,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3598,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3627,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3656,7 +3657,7 @@
         <v>200</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3743,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3772,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3801,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3830,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3859,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3888,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3917,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3946,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3975,7 +3976,7 @@
         <v>11000</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4091,7 +4092,7 @@
         <v>40000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4149,7 +4150,7 @@
         <v>2000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4207,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4236,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4265,7 +4266,7 @@
         <v>5460</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4352,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4381,7 +4382,7 @@
         <v>150000</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4439,7 +4440,7 @@
         <v>4710</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4555,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4584,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4613,7 +4614,7 @@
         <v>28100</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4700,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4729,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4758,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4787,7 +4788,7 @@
         <v>40000</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4874,7 +4875,7 @@
         <v>4000</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -5019,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -5048,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5077,7 +5078,7 @@
         <v>2250</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -5164,7 +5165,7 @@
         <v>2200</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6786,7 +6787,7 @@
         <v>58215</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
